--- a/backend/test_scripts/nearblocks_redeem.xlsx
+++ b/backend/test_scripts/nearblocks_redeem.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6188" uniqueCount="2608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6908" uniqueCount="2893">
   <si>
     <t>Near Block Number</t>
   </si>
@@ -7841,6 +7841,861 @@
   </si>
   <si>
     <t>CefcqzquWFpej1XoYNyykW2tbwYvuLQn7NYWC1Ht4X6U</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:21:08</t>
+  </si>
+  <si>
+    <t>EyNfjWdCND8n61T79FYnHGu2on3MQ67AW596Sim7RixG</t>
+  </si>
+  <si>
+    <t>proudwiki4880.testnet</t>
+  </si>
+  <si>
+    <t>tb1qrs5qd4mvu4p8n2px5fr9u59m7h5ypztuu5gvs6</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:21:21</t>
+  </si>
+  <si>
+    <t>5N448M2MDNUJZAXq65LfvPEJeH96F14C2hDYx3x1wkdY</t>
+  </si>
+  <si>
+    <t>normalcheese8543.testnet</t>
+  </si>
+  <si>
+    <t>tb1q476ccqe9g74jvjk9wcsna53nm5kdquqs53sa5e</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:21:24</t>
+  </si>
+  <si>
+    <t>2hSTDNmpao4nuQRuq9DUYg7oA4NaJNY8oikHoRMreWDc</t>
+  </si>
+  <si>
+    <t>livelink9119.testnet</t>
+  </si>
+  <si>
+    <t>tb1q897yv0xfd84d3mr5yu0hsv468vg2g7g4l9k3yr</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:21:47</t>
+  </si>
+  <si>
+    <t>6DEXcGXD5AQ5rD8ArAF93P1etMrGZRRFmF1v2CFxPeZ</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:21:51</t>
+  </si>
+  <si>
+    <t>5NbrJ5c37cP3tFahrVa8WVC8zFtjmwTVCBcDvd3dFqh2</t>
+  </si>
+  <si>
+    <t>samesalt8173.testnet</t>
+  </si>
+  <si>
+    <t>tb1qtd3d9n0vdg0f2x2sdp2v9wkhz9qvxu6a69qqn2</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:21:57</t>
+  </si>
+  <si>
+    <t>jkZ1CpwaezH19beirxnHxx31QfVxNiqtSqHsNFrUN6C</t>
+  </si>
+  <si>
+    <t>CZvh6tXr9TDqk2bjJVDDfQ1vd7uC6MiD2fDguxKujx3y</t>
+  </si>
+  <si>
+    <t>whitebat75.testnet</t>
+  </si>
+  <si>
+    <t>tb1qtg5qeqpk9npntsfujpcqahaqy797qny99plvvu</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:22:04</t>
+  </si>
+  <si>
+    <t>eAoFvstCwwMfrAJMnvSnFa1DkG4thejMTrHaRFa3oy1</t>
+  </si>
+  <si>
+    <t>6TRhyT54E56b4QqRuW6EyEQKxeKwx5DKynMboHo2XFqw</t>
+  </si>
+  <si>
+    <t>livedata7332.testnet</t>
+  </si>
+  <si>
+    <t>tb1qenvlzf8va5mtmw8den9wcnvye6dfrckkhe99t5</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:22:32</t>
+  </si>
+  <si>
+    <t>9vDn7L2sJAXwTEvxd7nnnQ1uaB6bpbAbBjdsjgb4pmxz</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:23:21</t>
+  </si>
+  <si>
+    <t>9R6iRwpALtuSYepTBG8YaCXfSbNfYrQ9np7Wj2QDHfiE</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:23:51</t>
+  </si>
+  <si>
+    <t>Dtdz1eHQ27QTGm4P113xerQcaM3zHGqPu7q74TcuqGwE</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:24:03</t>
+  </si>
+  <si>
+    <t>FJoSyRKMh3qvacJRZVX2Rmvjgs4gFXT75Upt9Mjtv2BK</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:22:27</t>
+  </si>
+  <si>
+    <t>5fBLdUHGDSmpyy2BrrFX6tpPNyqZUhaFtz2GynLtMC23</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:22:37</t>
+  </si>
+  <si>
+    <t>8RsRBZJMM6mWBEkgtS5kmwb6kvy2m2xtK4sp8BkMXvP6</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:22:42</t>
+  </si>
+  <si>
+    <t>4Px2dLL6Tb2923jdRXsaGxb7kp4GFfvDSuxAPC7uB1Kz</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:23:11</t>
+  </si>
+  <si>
+    <t>Cg9oxVJcNr773NXToVNHUMXqQf431owEZCKSYJYF4QdT</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:23:16</t>
+  </si>
+  <si>
+    <t>E5LkZkan49rY8YqdggJT5mygsE6AXtrsEA3e1rWQRFHD</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:23:27</t>
+  </si>
+  <si>
+    <t>Hq4zaj6Rgc7md9e2Yd5wuPAPSC3RkdRbbpoGK33qzqDm</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:24:00</t>
+  </si>
+  <si>
+    <t>H2bdDqEtXXiNEPgQR93hioFHJWtVxGpBeCV8Ceb9okxZ</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:29:44</t>
+  </si>
+  <si>
+    <t>2TddKrbw4u2bXxQ9fL8bz4qdGE74xe8vTuDLq19XQqWX</t>
+  </si>
+  <si>
+    <t>narrowelk8785.testnet</t>
+  </si>
+  <si>
+    <t>tb1qrvfcvelmqz38ycr05w35rsm7eh6j8w2tqtzd88</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:30:00</t>
+  </si>
+  <si>
+    <t>Gg9EUPTwCgjrAH9yGFowfv9Mxbp81EiD3TcPF5AgchGo</t>
+  </si>
+  <si>
+    <t>cutebat3720.testnet</t>
+  </si>
+  <si>
+    <t>tb1qfqdy7alfz5dkn6usdtzz2vw4cfkchsv2x2hjsf</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:30:03</t>
+  </si>
+  <si>
+    <t>6Mn8oUyhvX8gybT8XkbRBpXHnH7rs2KubaPsxnos6iEV</t>
+  </si>
+  <si>
+    <t>newnook1563.testnet</t>
+  </si>
+  <si>
+    <t>tb1qu8lldqmdge6m5rept3mn65jt7wgyt9ugvmpmay</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:27:27</t>
+  </si>
+  <si>
+    <t>7Pfgjtd5CMiRzJREZqGia5Z6phUaiPBYwwY3UPzMbAdn</t>
+  </si>
+  <si>
+    <t>hatii616.testnet</t>
+  </si>
+  <si>
+    <t>tb1qu0k52ml8anj3dxspu2tq2h4kpvfw7k05tp3lcf</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:29:47</t>
+  </si>
+  <si>
+    <t>3pz1jqsJCbDgpcopRAyXgg54foospCgbg6vCgN37mnpT</t>
+  </si>
+  <si>
+    <t>bluekoala6265.testnet</t>
+  </si>
+  <si>
+    <t>tb1qztrny39d83kuwm8y9u73mxm0yx5edpjw3dxehz</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:29:51</t>
+  </si>
+  <si>
+    <t>C43E8YmZUsDNSZG9dwQ8kRGqQ9pryHYPqx5Yset5UTM6</t>
+  </si>
+  <si>
+    <t>hotcat7599.testnet</t>
+  </si>
+  <si>
+    <t>tb1qy8nn4dcc9swwee9ln96rl4v2kxfn8r7k4mqt00</t>
+  </si>
+  <si>
+    <t>RtvdKpa6Y5vSZmGtSuQkt7H2fw7k3NDQBynwyyVTjL6</t>
+  </si>
+  <si>
+    <t>darkbank6890.testnet</t>
+  </si>
+  <si>
+    <t>tb1q0wkxjl4y2snmpurlx0yhsqwdvc2fc9afcp4rhq</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:30:30</t>
+  </si>
+  <si>
+    <t>2TJqYyNac1pULMePxy7zqxLMoWQonESGzJRqHKrV13Qe</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:30:39</t>
+  </si>
+  <si>
+    <t>D4ZZeiLkoL6ZLbMDQVP8WS7Aikn7AGPPwLemwtqfbQNv</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:30:44</t>
+  </si>
+  <si>
+    <t>5bQzwqLa4WywMJbuRPMhJmfRgbAdko2411SSksaSvmDA</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:31:07</t>
+  </si>
+  <si>
+    <t>7CVyuRkBZUui4QqjCKX73fmiy9zUsKiiLSZsWwYnWBuL</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:31:16</t>
+  </si>
+  <si>
+    <t>A3gJ9uArjCgEKg3aUyxNjSfE8ARHfrQFwprTNvK4mnVL</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:31:18</t>
+  </si>
+  <si>
+    <t>4Wq4aPqvAiEXZA2UdZ2md7Tk2jYBXpigwWd8iTci8ALM</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:31:37</t>
+  </si>
+  <si>
+    <t>HN6QkVvBuVV2NypsJtRSLV2WdYzt9nA3f82P9n8wyAwj</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:31:43</t>
+  </si>
+  <si>
+    <t>A2xn2XeuW6dACFvURGfvL774M3cdajaoc2bVFATt3ceo</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:31:51</t>
+  </si>
+  <si>
+    <t>4VskpTjQXxCysbdA67jLXw4XshwYFwf7QD93NxktyHsE</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:31:52</t>
+  </si>
+  <si>
+    <t>8WZwinheDnZtQ9RfQ8bw8m9B4Sx2uzwCrsMuZHn9jAzG</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:32:21</t>
+  </si>
+  <si>
+    <t>A1sp3MetsVvbR6JTuQVdyfTaXnnGFpCxVtMENncMhaiW</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:32:49</t>
+  </si>
+  <si>
+    <t>G6SKzGi6ZJZo8hCYcAhGoiXnyU94DFkd3Np8xq2LMpbf</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:30:33</t>
+  </si>
+  <si>
+    <t>CbbCKYDHH5gmC4x7DNf9GrC4Jfp8GVqo2EP7XPPHXN94</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:31:10</t>
+  </si>
+  <si>
+    <t>D1F1QvwNKwMmKCe9XxHns5LyVB6JMQucob8ZzmQLKL92</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:31:11</t>
+  </si>
+  <si>
+    <t>DdqP1PvQDHUP4xMPSTbywryTwnrba1z1SEr8ps68FFSu</t>
+  </si>
+  <si>
+    <t>9uSxUj5ieNtnGGLUjPaP1TmwqJMMCcMEiQkBXHaQmZVx</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:31:44</t>
+  </si>
+  <si>
+    <t>6kKftJ7ii5i1CJ6VuMG1BmPXt4X63JXvZ9rtNev3iYYp</t>
+  </si>
+  <si>
+    <t>J3otCPKYDR74QUgCEEienz8eFHkPh2sW8meaC2jRsbRW</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:32:10</t>
+  </si>
+  <si>
+    <t>4nLProtDkzDdupSryUeg1mMyZgQtPNV2MxHvdzPHKGHE</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:32:27</t>
+  </si>
+  <si>
+    <t>9Furck6xeVkmJas4KvXqziu6RLzxJeavMFzcRnKt7YV2</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:39:22</t>
+  </si>
+  <si>
+    <t>8xiLduH1XwXSXKiMNdw2NcXRQbr8zioJ1RCnnnVvkbiV</t>
+  </si>
+  <si>
+    <t>localowl3405.testnet</t>
+  </si>
+  <si>
+    <t>tb1qcmu993s3eveclwc4aqhxg0t2e3yfwsg4e0l574</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:39:23</t>
+  </si>
+  <si>
+    <t>3wHLjS8GuSmE38mwMa1C8Rif7WsUX1oBmDPJQzWoRCEM</t>
+  </si>
+  <si>
+    <t>weakpant9005.testnet</t>
+  </si>
+  <si>
+    <t>tb1qp3d9s8q3m6j93ew84rcfnufw4yrvjdthq6r22r</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:39:53</t>
+  </si>
+  <si>
+    <t>6K1pcF91evt2Hzv2cjCdQ1KrTrpSMMm1VkBEM5oBxMPT</t>
+  </si>
+  <si>
+    <t>roughtea7054.testnet</t>
+  </si>
+  <si>
+    <t>tb1qn0jx3477q9wgvr847vxkh7qzfteycpwyg6lase</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:40:02</t>
+  </si>
+  <si>
+    <t>8P71Lj3ZJjkHn7pWPxjTvvp4R95emFu7c8jYXfJf3b9k</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:40:27</t>
+  </si>
+  <si>
+    <t>JAdC4izXSn4ytqWxQCbHg9Dy7ZgPXvGJcDhBGkWVRX2t</t>
+  </si>
+  <si>
+    <t>slowlace6431.testnet</t>
+  </si>
+  <si>
+    <t>tb1qpvrmzs30vypht5gn28j33ywwx7vhq8ndv5m9yt</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:40:40</t>
+  </si>
+  <si>
+    <t>9dToYCuZt9jPYcLsCqoZapMHiaJbzjSQynBk6WdqwMKq</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:40:43</t>
+  </si>
+  <si>
+    <t>F2DRHSHmmtH1QeYqWxUjNuC9bKNgq5YFcAtejbCErL3</t>
+  </si>
+  <si>
+    <t>safezest7935.testnet</t>
+  </si>
+  <si>
+    <t>tb1qlqpsx4p6zu3qr74nwr7ywp8cu54ruxnxpars7a</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:41:20</t>
+  </si>
+  <si>
+    <t>3aXZ5fNUZbTmXH7AUdU5bd6aqxwtK4iH4NLBpdGXpZNe</t>
+  </si>
+  <si>
+    <t>soundharbor519.testnet</t>
+  </si>
+  <si>
+    <t>tb1qcrcpf0ggvxy6rvrrq62ywt8fej3hnmydjrz29n</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:41:21</t>
+  </si>
+  <si>
+    <t>4YFq7JtBDWashSxDu6q7kkFbG3o16yj2d7jFofPzPegA</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:41:52</t>
+  </si>
+  <si>
+    <t>9RNsmGkH65Ax674rWX5MnLge6hU7pgezUgWSp35pFLix</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:39:18</t>
+  </si>
+  <si>
+    <t>EJz8QhZ5hJVmBE2sTAJtNV8ir92kGpq2YB562NMytiXd</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:39:28</t>
+  </si>
+  <si>
+    <t>CJwas6x7PLJ1LsyFiiiBkmXNTSuTfVBY1oZd8qvWQP8K</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:39:30</t>
+  </si>
+  <si>
+    <t>6ZBEwedG4QASUHxZG1v254XG3FsKkNwJbnmy4pDHMSJc</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:40:01</t>
+  </si>
+  <si>
+    <t>AYA6ixoDVxd8QaPAd54vkQKBiJDPxfth9CbQ8zpBgGpU</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:40:29</t>
+  </si>
+  <si>
+    <t>FmB2bXUsEKHrNfU5Rd2aXagWSnnfGQTWkYmjgX8T54H</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:40:37</t>
+  </si>
+  <si>
+    <t>21oSLKuQ8QSo6BH9W8mzMaEK5V2mxJ714Xr659RPRTxV</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:41:40</t>
+  </si>
+  <si>
+    <t>4btVNorBPb6A4TuDwaUVN8BnjmpbdERudJ6fp4bNJbPp</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:41:57</t>
+  </si>
+  <si>
+    <t>FkNeKduXb9CirbZF1b8JbWvhANNxEUAPPGTviGA6q9Az</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:48:17</t>
+  </si>
+  <si>
+    <t>82cewMgG2rSsMw8kSH7ExtZZE8mUa5sQURRatD6yhDcf</t>
+  </si>
+  <si>
+    <t>otherwasp607.testnet</t>
+  </si>
+  <si>
+    <t>tb1qvakyqpj087eaw5mafqcumczz5r8k0r8chrempn</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:48:21</t>
+  </si>
+  <si>
+    <t>FYFCr4E9k8kQXXrfCUWhDMyUcy8BF6wUkrD1FR7EXaqA</t>
+  </si>
+  <si>
+    <t>tightflour3659.testnet</t>
+  </si>
+  <si>
+    <t>tb1q3tuqc78s66cc92ya8ny72p07wlpk7ajyu05upe</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:48:49</t>
+  </si>
+  <si>
+    <t>HF4911XZw7M13jSxmXrGLgpNNZeZtayEBbqeTF1y13xR</t>
+  </si>
+  <si>
+    <t>lightrat8476.testnet</t>
+  </si>
+  <si>
+    <t>tb1q8u5kq8fz0mqxrtdlez4sjstee3wrhkpe2978f3</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:48:56</t>
+  </si>
+  <si>
+    <t>8ukyzYtEiyeTA6VqbFgakofXrE9bPaMqGU3HZZCK6VnM</t>
+  </si>
+  <si>
+    <t>funnytie1465.testnet</t>
+  </si>
+  <si>
+    <t>tb1qeuj8mrtf57pwgjdfwut4tsfatwe86q9ztdcnsh</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:49:20</t>
+  </si>
+  <si>
+    <t>AHpGVz7SCRbjtZzgKzcHbP1JNbBLG2q8cjPu6HRS1qBV</t>
+  </si>
+  <si>
+    <t>equalpie4797.testnet</t>
+  </si>
+  <si>
+    <t>tb1qf5m6dcxcgahdg7w3pm6nzg8022dvdf3dt6ng8e</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:49:29</t>
+  </si>
+  <si>
+    <t>CPyVmzsxgnGkkFqxxUuACJBZ1Cd3MNxaaATfPdBpsDSh</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:49:40</t>
+  </si>
+  <si>
+    <t>Bm5fqUjD8auWKGKQZiAFUfGmh6rCSxCrDJvWbGbzdGV8</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:50:07</t>
+  </si>
+  <si>
+    <t>6rinzsCx2RZcdiXJMetsWHcTP38CNbbt7VhNzexoKs4H</t>
+  </si>
+  <si>
+    <t>lownewt7996.testnet</t>
+  </si>
+  <si>
+    <t>tb1qv4z6n8j674alrkxd4hddnr7qttcjsyv8dyyyau</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:50:14</t>
+  </si>
+  <si>
+    <t>5rKqsr4aNiELUy7ZjRn2bX2w6VYZLAVBpsQXdVGtPTWL</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:50:21</t>
+  </si>
+  <si>
+    <t>HR3spJ9f6HQAfiHe4whJ4Ya1ZGt2YuCrqs5jbpCwHfMe</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:50:51</t>
+  </si>
+  <si>
+    <t>6a6sCfTEMUUNzhjpseMoFDLhbNmB7D3N97tF53x23DsF</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:50:59</t>
+  </si>
+  <si>
+    <t>7bsxQdivLeZHwmzxWyGmAcCJwwNbZG6RKVsUUdkPuVfe</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:48:00</t>
+  </si>
+  <si>
+    <t>CJYzdRgFHuwvzwnjYJCvvScah9qBftZMNh4T68KiyZQz</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:48:11</t>
+  </si>
+  <si>
+    <t>FEGL4qQdyfhgub9y87rr5cXvJsSZqR9RXG7mnNDqstgn</t>
+  </si>
+  <si>
+    <t>AuUXKF3omp3tjuZEa31pKvFWq1w9oXU3LHNuZ5XyYX3E</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:48:42</t>
+  </si>
+  <si>
+    <t>5Bw3hy4kyhyUDwHxFPN85McHEyZVeqPWUdr2AJ35C8LY</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:48:55</t>
+  </si>
+  <si>
+    <t>36h4ZivaAc82VET2xDuhdmtaHtUA774PHzYag9ZDhvFi</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:49:37</t>
+  </si>
+  <si>
+    <t>BuYFWwiAQnor22cG47PeQK1nTPf2Ram3YkanxrDWY57T</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:50:18</t>
+  </si>
+  <si>
+    <t>8733YDkuGBfV8o2hgBtBnABmkLxuyMJXB9SBE39TRnZ3</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:50:19</t>
+  </si>
+  <si>
+    <t>54ZkFXHDV7z9jkSVxhAkJtrMc4ctEfmstepYP5UooobD</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:50:46</t>
+  </si>
+  <si>
+    <t>DwZRZUuStjax8HqQMgPXYERvNw5xCSTnrDnqzRB7eqHC</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:58:06</t>
+  </si>
+  <si>
+    <t>BuWYdx91rZ75ocoBSF4tycBbe2PckhxELpefGJ8mf7Bz</t>
+  </si>
+  <si>
+    <t>kojuros.testnet</t>
+  </si>
+  <si>
+    <t>90000000</t>
+  </si>
+  <si>
+    <t>tb1q5kcp4hegxn6g6gwx8ju9vfdsvypvwt5aecswe4</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:58:24</t>
+  </si>
+  <si>
+    <t>9E6SHu7k2xtfojaarQd154SfZQwVSMAZPMboSkpGYNVW</t>
+  </si>
+  <si>
+    <t>samenewt754.testnet</t>
+  </si>
+  <si>
+    <t>tb1q7c3mdxpg6egxmrlruq2230xxtnqdkrg0ssgcpd</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:58:25</t>
+  </si>
+  <si>
+    <t>7yFfXYYhUWLuJTPhxRvo2w7aHrpcinhz31QW6bcNEkKA</t>
+  </si>
+  <si>
+    <t>funnyurial9741.testnet</t>
+  </si>
+  <si>
+    <t>tb1q35vvq2csny7pev97dc3ycu2m73nkzrzrafyfq0</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:58:28</t>
+  </si>
+  <si>
+    <t>7Q9jaKdgBRYnwwnyRWspm7FJhsZeq6iqAyEe6Bb7t2FN</t>
+  </si>
+  <si>
+    <t>silentwatch9385.testnet</t>
+  </si>
+  <si>
+    <t>tb1qhp6x6qnf2juadx793yfgxqf0fj7xs8zf0527eg</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:58:30</t>
+  </si>
+  <si>
+    <t>A565FfNYQDYRnvpVXc4KKBFqpUkbBzrg7MVQSZrF6uas</t>
+  </si>
+  <si>
+    <t>solidoil6316.testnet</t>
+  </si>
+  <si>
+    <t>tb1qyxpsqphgvjajqmspkz4td7tfl9pmqf3t26g953</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:58:52</t>
+  </si>
+  <si>
+    <t>8jSpXtW2NtinKRfdWPKthVLtvXhkz6Hs36URsF93qBDd</t>
+  </si>
+  <si>
+    <t>flatblog4808.testnet</t>
+  </si>
+  <si>
+    <t>tb1qzm7v75jtgzm3c306uaudcn5kued6sh2xnycr6u</t>
+  </si>
+  <si>
+    <t>DzC7t2H2v7i5dxnKq2GeeiESDstBZR7ouFahdpcGhfrA</t>
+  </si>
+  <si>
+    <t>happykale8262.testnet</t>
+  </si>
+  <si>
+    <t>tb1q5klkk57pgtnwj0npqjtys0v8ffqldg4gm4dhdx</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:59:03</t>
+  </si>
+  <si>
+    <t>DTYSEx1oxBpeS9u48bqc4X1B3rK8PLq3LLfQ4c57z9s9</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:59:07</t>
+  </si>
+  <si>
+    <t>ERmqwL8mcTwF7W16Dpj6DTdoLYk2dYydkhduQjJCrYJ9</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:59:40</t>
+  </si>
+  <si>
+    <t>3p8osUFo7RSE3F7Q7cxwv4P53YGcNu4g4CYsChKVTJ2C</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:59:41</t>
+  </si>
+  <si>
+    <t>8BNBzuWDunweYbNPjEoPMHJ3kmoiZXpc9Sq3H2ZXq9xf</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:59:50</t>
+  </si>
+  <si>
+    <t>BBayuiUdWwf1MhJHiaCAL61R7M3cd7vrB12FMb68VXuW</t>
+  </si>
+  <si>
+    <t>2025-04-17 17:00:57</t>
+  </si>
+  <si>
+    <t>FB15vFgfKs43SjNGXGj9tVDiAFLsVwbxQnZtMUj7ETWR</t>
+  </si>
+  <si>
+    <t>2025-04-17 17:00:58</t>
+  </si>
+  <si>
+    <t>9j56NVAVW4y7PwCppvYurjWuqrzRtVCJXqibrwWJU1n4</t>
+  </si>
+  <si>
+    <t>4mgZFib5kW9vPXkkcCDV9TBSD9kgqmtXXaaRRtBxo9dt</t>
+  </si>
+  <si>
+    <t>2025-04-17 17:01:03</t>
+  </si>
+  <si>
+    <t>AYfgpM4PoWqhjSDPKip4549wv3VXokhDKjaiUJat2dPK</t>
+  </si>
+  <si>
+    <t>3uYjgA2C3rpUxEVCyVzSrzxEGXHKowHHQtfsGmxxpMGr</t>
+  </si>
+  <si>
+    <t>2025-04-17 17:01:31</t>
+  </si>
+  <si>
+    <t>7jAiaiSYdrtyNtDFVWQje2m6AVtrQgPgKZsGAw4wbJw2</t>
+  </si>
+  <si>
+    <t>2025-04-17 17:01:32</t>
+  </si>
+  <si>
+    <t>6nR6E7U92adzdqq66KWRgHyoaHueRcSjyiy1WAhDs5vG</t>
+  </si>
+  <si>
+    <t>2025-04-17 17:01:40</t>
+  </si>
+  <si>
+    <t>9TKda9pacsgYdt4j39LTPHG71tPQorm3FEeD3k5dumSJ</t>
+  </si>
+  <si>
+    <t>2025-04-17 17:02:06</t>
+  </si>
+  <si>
+    <t>4aR1W2ZEqn26XC3RAm6K9taKBNqbRoYzRj6PcScZwvnR</t>
+  </si>
+  <si>
+    <t>2025-04-17 17:02:21</t>
+  </si>
+  <si>
+    <t>HYVXN7ruJA7NBbGSe5Sf8Mu3LQ3qSije4CUpgSKFHyps</t>
+  </si>
+  <si>
+    <t>2025-04-17 17:02:23</t>
+  </si>
+  <si>
+    <t>AhX622TtoZdpxVRuAi1PqA869ghemkQZLNHZ85Xv7r7q</t>
+  </si>
+  <si>
+    <t>2025-04-17 16:59:45</t>
+  </si>
+  <si>
+    <t>GYLZvvpFu8YxnbrEg2aWjYviXX4fyvUynUymeoS6GjF8</t>
+  </si>
+  <si>
+    <t>HVaqEDq5s6ACQQ8su1dYb8hAvwnZJuoUuS4P8q4meSha</t>
+  </si>
+  <si>
+    <t>2025-04-17 17:00:45</t>
+  </si>
+  <si>
+    <t>7zpeFrc2MF8jL2S6y9NzgAVEQZXtCsCEBqv65at2if2Q</t>
+  </si>
+  <si>
+    <t>2025-04-17 17:01:43</t>
+  </si>
+  <si>
+    <t>7FrcDLHrnx1Q7YMoVLsSuyth98jnAbyYVaoJ528YWtSb</t>
+  </si>
+  <si>
+    <t>2025-04-17 17:02:13</t>
+  </si>
+  <si>
+    <t>AdsZRCGfwvQJPWsR1ryoBRghN2nz5YA92P6Kwd1LXasZ</t>
+  </si>
+  <si>
+    <t>2025-04-17 17:02:14</t>
+  </si>
+  <si>
+    <t>7N7nS8NcVPeeXwXhcSD1uHMr8g6EVyVy9v2DtV9pXono</t>
   </si>
 </sst>
 </file>
@@ -8223,7 +9078,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1031"/>
+  <dimension ref="A1:H1151"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -35044,6 +35899,3126 @@
         <v>13</v>
       </c>
     </row>
+    <row r="1032" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1032">
+        <v>193047931</v>
+      </c>
+      <c r="B1032">
+        <v>1744878068</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>2609</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1032" t="s">
+        <v>2611</v>
+      </c>
+      <c r="H1032" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1033">
+        <v>193047944</v>
+      </c>
+      <c r="B1033">
+        <v>1744878081</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>2614</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1033" t="s">
+        <v>2615</v>
+      </c>
+      <c r="H1033" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1034">
+        <v>193047947</v>
+      </c>
+      <c r="B1034">
+        <v>1744878084</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>2617</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>2618</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1034" t="s">
+        <v>2619</v>
+      </c>
+      <c r="H1034" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1035">
+        <v>193047970</v>
+      </c>
+      <c r="B1035">
+        <v>1744878107</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>2621</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1035" t="s">
+        <v>2611</v>
+      </c>
+      <c r="H1035" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1036">
+        <v>193047974</v>
+      </c>
+      <c r="B1036">
+        <v>1744878111</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>2623</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>2624</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1036" t="s">
+        <v>2625</v>
+      </c>
+      <c r="H1036" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1037">
+        <v>193047980</v>
+      </c>
+      <c r="B1037">
+        <v>1744878117</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>2627</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>2614</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1037" t="s">
+        <v>2615</v>
+      </c>
+      <c r="H1037" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1038">
+        <v>193047980</v>
+      </c>
+      <c r="B1038">
+        <v>1744878117</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>2628</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>2629</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1038" t="s">
+        <v>2630</v>
+      </c>
+      <c r="H1038" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1039">
+        <v>193047986</v>
+      </c>
+      <c r="B1039">
+        <v>1744878124</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>2632</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>2618</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1039" t="s">
+        <v>2619</v>
+      </c>
+      <c r="H1039" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1040">
+        <v>193047986</v>
+      </c>
+      <c r="B1040">
+        <v>1744878124</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>2634</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1040" t="s">
+        <v>2635</v>
+      </c>
+      <c r="H1040" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1041">
+        <v>193048014</v>
+      </c>
+      <c r="B1041">
+        <v>1744878152</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>2636</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>2624</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1041" t="s">
+        <v>2625</v>
+      </c>
+      <c r="H1041" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1042">
+        <v>193048063</v>
+      </c>
+      <c r="B1042">
+        <v>1744878201</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>2639</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>2634</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1042" t="s">
+        <v>2635</v>
+      </c>
+      <c r="H1042" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1043">
+        <v>193048092</v>
+      </c>
+      <c r="B1043">
+        <v>1744878231</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>2640</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>2641</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1043" t="s">
+        <v>2611</v>
+      </c>
+      <c r="H1043" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1044">
+        <v>193048104</v>
+      </c>
+      <c r="B1044">
+        <v>1744878243</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>2618</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1044" t="s">
+        <v>2619</v>
+      </c>
+      <c r="H1044" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1045">
+        <v>193048009</v>
+      </c>
+      <c r="B1045">
+        <v>1744878147</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>2645</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>2629</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1045" t="s">
+        <v>2630</v>
+      </c>
+      <c r="H1045" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1046">
+        <v>193048019</v>
+      </c>
+      <c r="B1046">
+        <v>1744878157</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>2647</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>2618</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1046" t="s">
+        <v>2619</v>
+      </c>
+      <c r="H1046" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1047">
+        <v>193048024</v>
+      </c>
+      <c r="B1047">
+        <v>1744878162</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>2649</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>2634</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1047" t="s">
+        <v>2635</v>
+      </c>
+      <c r="H1047" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1048">
+        <v>193048052</v>
+      </c>
+      <c r="B1048">
+        <v>1744878191</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>2651</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>2614</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1048" t="s">
+        <v>2615</v>
+      </c>
+      <c r="H1048" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1049">
+        <v>193048058</v>
+      </c>
+      <c r="B1049">
+        <v>1744878196</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>2653</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>2611</v>
+      </c>
+      <c r="H1049" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1050">
+        <v>193048068</v>
+      </c>
+      <c r="B1050">
+        <v>1744878207</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>2655</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>2629</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1050" t="s">
+        <v>2630</v>
+      </c>
+      <c r="H1050" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1051">
+        <v>193048101</v>
+      </c>
+      <c r="B1051">
+        <v>1744878240</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>2657</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>2614</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>2615</v>
+      </c>
+      <c r="H1051" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1052">
+        <v>193048440</v>
+      </c>
+      <c r="B1052">
+        <v>1744878584</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>2659</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>2660</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1052" t="s">
+        <v>2661</v>
+      </c>
+      <c r="H1052" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1053">
+        <v>193048456</v>
+      </c>
+      <c r="B1053">
+        <v>1744878600</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>2663</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1053" t="s">
+        <v>2665</v>
+      </c>
+      <c r="H1053" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1054">
+        <v>193048459</v>
+      </c>
+      <c r="B1054">
+        <v>1744878603</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>2666</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>2667</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1054" t="s">
+        <v>2669</v>
+      </c>
+      <c r="H1054" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1055">
+        <v>193048305</v>
+      </c>
+      <c r="B1055">
+        <v>1744878447</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>2673</v>
+      </c>
+      <c r="H1055" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1056">
+        <v>193048443</v>
+      </c>
+      <c r="B1056">
+        <v>1744878587</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>2675</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1056" t="s">
+        <v>2677</v>
+      </c>
+      <c r="H1056" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1057">
+        <v>193048447</v>
+      </c>
+      <c r="B1057">
+        <v>1744878591</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>2679</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>2680</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1057" t="s">
+        <v>2681</v>
+      </c>
+      <c r="H1057" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1058">
+        <v>193048456</v>
+      </c>
+      <c r="B1058">
+        <v>1744878600</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>2663</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1058" t="s">
+        <v>2665</v>
+      </c>
+      <c r="H1058" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1059">
+        <v>193048456</v>
+      </c>
+      <c r="B1059">
+        <v>1744878600</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>2683</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1059" t="s">
+        <v>2684</v>
+      </c>
+      <c r="H1059" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1060">
+        <v>193048486</v>
+      </c>
+      <c r="B1060">
+        <v>1744878630</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>2685</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>2686</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1060" t="s">
+        <v>2677</v>
+      </c>
+      <c r="H1060" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1061">
+        <v>193048495</v>
+      </c>
+      <c r="B1061">
+        <v>1744878639</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1061" t="s">
+        <v>2665</v>
+      </c>
+      <c r="H1061" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1062">
+        <v>193048500</v>
+      </c>
+      <c r="B1062">
+        <v>1744878644</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>2690</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>2660</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1062" t="s">
+        <v>2661</v>
+      </c>
+      <c r="H1062" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1063">
+        <v>193048522</v>
+      </c>
+      <c r="B1063">
+        <v>1744878667</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>2691</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>2692</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>2680</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1063" t="s">
+        <v>2681</v>
+      </c>
+      <c r="H1063" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1064">
+        <v>193048531</v>
+      </c>
+      <c r="B1064">
+        <v>1744878676</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>2693</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>2694</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1064" t="s">
+        <v>2669</v>
+      </c>
+      <c r="H1064" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1065">
+        <v>193048533</v>
+      </c>
+      <c r="B1065">
+        <v>1744878678</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1065" t="s">
+        <v>2665</v>
+      </c>
+      <c r="H1065" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1066">
+        <v>193048552</v>
+      </c>
+      <c r="B1066">
+        <v>1744878697</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>2697</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>2698</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>2680</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1066" t="s">
+        <v>2681</v>
+      </c>
+      <c r="H1066" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1067">
+        <v>193048558</v>
+      </c>
+      <c r="B1067">
+        <v>1744878703</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>2700</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1067" t="s">
+        <v>2677</v>
+      </c>
+      <c r="H1067" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1068">
+        <v>193048566</v>
+      </c>
+      <c r="B1068">
+        <v>1744878711</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1068" t="s">
+        <v>2669</v>
+      </c>
+      <c r="H1068" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1069">
+        <v>193048567</v>
+      </c>
+      <c r="B1069">
+        <v>1744878712</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>2703</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>2704</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1069" t="s">
+        <v>2665</v>
+      </c>
+      <c r="H1069" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1070">
+        <v>193048595</v>
+      </c>
+      <c r="B1070">
+        <v>1744878741</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>2705</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>2706</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1070" t="s">
+        <v>2669</v>
+      </c>
+      <c r="H1070" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1071">
+        <v>193048623</v>
+      </c>
+      <c r="B1071">
+        <v>1744878769</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>2707</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>2708</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>2660</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1071" t="s">
+        <v>2661</v>
+      </c>
+      <c r="H1071" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1072">
+        <v>193048489</v>
+      </c>
+      <c r="B1072">
+        <v>1744878633</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>2709</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>2710</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>2683</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1072" t="s">
+        <v>2684</v>
+      </c>
+      <c r="H1072" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1073">
+        <v>193048525</v>
+      </c>
+      <c r="B1073">
+        <v>1744878670</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1073" t="s">
+        <v>2677</v>
+      </c>
+      <c r="H1073" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1074">
+        <v>193048526</v>
+      </c>
+      <c r="B1074">
+        <v>1744878671</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>2714</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>2660</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1074" t="s">
+        <v>2661</v>
+      </c>
+      <c r="H1074" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1075">
+        <v>193048533</v>
+      </c>
+      <c r="B1075">
+        <v>1744878678</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1075" t="s">
+        <v>2665</v>
+      </c>
+      <c r="H1075" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1076">
+        <v>193048533</v>
+      </c>
+      <c r="B1076">
+        <v>1744878678</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>2715</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>2683</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1076" t="s">
+        <v>2684</v>
+      </c>
+      <c r="H1076" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1077">
+        <v>193048559</v>
+      </c>
+      <c r="B1077">
+        <v>1744878704</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>2717</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>2660</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1077" t="s">
+        <v>2661</v>
+      </c>
+      <c r="H1077" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1078">
+        <v>193048566</v>
+      </c>
+      <c r="B1078">
+        <v>1744878711</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>2718</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>2683</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1078" t="s">
+        <v>2684</v>
+      </c>
+      <c r="H1078" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1079">
+        <v>193048566</v>
+      </c>
+      <c r="B1079">
+        <v>1744878711</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1079" t="s">
+        <v>2669</v>
+      </c>
+      <c r="H1079" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1080">
+        <v>193048585</v>
+      </c>
+      <c r="B1080">
+        <v>1744878730</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>2720</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1080" t="s">
+        <v>2677</v>
+      </c>
+      <c r="H1080" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1081">
+        <v>193048601</v>
+      </c>
+      <c r="B1081">
+        <v>1744878747</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>2721</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>2722</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1081" t="s">
+        <v>2665</v>
+      </c>
+      <c r="H1081" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1082">
+        <v>193048991</v>
+      </c>
+      <c r="B1082">
+        <v>1744879162</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>2724</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1082" t="s">
+        <v>2726</v>
+      </c>
+      <c r="H1082" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1083">
+        <v>193048992</v>
+      </c>
+      <c r="B1083">
+        <v>1744879163</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>2727</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>2728</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>2729</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1083" t="s">
+        <v>2730</v>
+      </c>
+      <c r="H1083" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1084">
+        <v>193049018</v>
+      </c>
+      <c r="B1084">
+        <v>1744879193</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>2731</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>2733</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1084" t="s">
+        <v>2734</v>
+      </c>
+      <c r="H1084" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1085">
+        <v>193049026</v>
+      </c>
+      <c r="B1085">
+        <v>1744879202</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>2736</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>2729</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1085" t="s">
+        <v>2730</v>
+      </c>
+      <c r="H1085" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1086">
+        <v>193049048</v>
+      </c>
+      <c r="B1086">
+        <v>1744879227</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>2739</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1086" t="s">
+        <v>2740</v>
+      </c>
+      <c r="H1086" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1087">
+        <v>193049060</v>
+      </c>
+      <c r="B1087">
+        <v>1744879240</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>2733</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1087" t="s">
+        <v>2734</v>
+      </c>
+      <c r="H1087" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1088">
+        <v>193049063</v>
+      </c>
+      <c r="B1088">
+        <v>1744879243</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>2743</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1088" t="s">
+        <v>2746</v>
+      </c>
+      <c r="H1088" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1089">
+        <v>193049097</v>
+      </c>
+      <c r="B1089">
+        <v>1744879280</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>2748</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1089" t="s">
+        <v>2750</v>
+      </c>
+      <c r="H1089" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1090">
+        <v>193049099</v>
+      </c>
+      <c r="B1090">
+        <v>1744879281</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>2752</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1090" t="s">
+        <v>2746</v>
+      </c>
+      <c r="H1090" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1091">
+        <v>193049128</v>
+      </c>
+      <c r="B1091">
+        <v>1744879312</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>2754</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>2739</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1091" t="s">
+        <v>2740</v>
+      </c>
+      <c r="H1091" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1092">
+        <v>193048987</v>
+      </c>
+      <c r="B1092">
+        <v>1744879158</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>2739</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1092" t="s">
+        <v>2740</v>
+      </c>
+      <c r="H1092" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1093">
+        <v>193048997</v>
+      </c>
+      <c r="B1093">
+        <v>1744879168</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>2757</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>2758</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1093" t="s">
+        <v>2750</v>
+      </c>
+      <c r="H1093" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1094">
+        <v>193048999</v>
+      </c>
+      <c r="B1094">
+        <v>1744879170</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>2760</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1094" t="s">
+        <v>2746</v>
+      </c>
+      <c r="H1094" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1095">
+        <v>193049025</v>
+      </c>
+      <c r="B1095">
+        <v>1744879201</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>2762</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>2739</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1095" t="s">
+        <v>2740</v>
+      </c>
+      <c r="H1095" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1096">
+        <v>193049050</v>
+      </c>
+      <c r="B1096">
+        <v>1744879229</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>2763</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1096" t="s">
+        <v>2726</v>
+      </c>
+      <c r="H1096" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1097">
+        <v>193049057</v>
+      </c>
+      <c r="B1097">
+        <v>1744879237</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>2766</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1097" t="s">
+        <v>2750</v>
+      </c>
+      <c r="H1097" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1098">
+        <v>193049117</v>
+      </c>
+      <c r="B1098">
+        <v>1744879300</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>2767</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>2768</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1098" t="s">
+        <v>2746</v>
+      </c>
+      <c r="H1098" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1099">
+        <v>193049133</v>
+      </c>
+      <c r="B1099">
+        <v>1744879317</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>2769</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1099" t="s">
+        <v>2726</v>
+      </c>
+      <c r="H1099" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1100">
+        <v>193049523</v>
+      </c>
+      <c r="B1100">
+        <v>1744879697</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>2772</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>2773</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1100" t="s">
+        <v>2774</v>
+      </c>
+      <c r="H1100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1101">
+        <v>193049527</v>
+      </c>
+      <c r="B1101">
+        <v>1744879701</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>2776</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>2777</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1101" t="s">
+        <v>2778</v>
+      </c>
+      <c r="H1101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1102">
+        <v>193049555</v>
+      </c>
+      <c r="B1102">
+        <v>1744879729</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>2779</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>2780</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>2781</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1102" t="s">
+        <v>2782</v>
+      </c>
+      <c r="H1102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1103">
+        <v>193049562</v>
+      </c>
+      <c r="B1103">
+        <v>1744879736</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>2784</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>2785</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1103" t="s">
+        <v>2786</v>
+      </c>
+      <c r="H1103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1104">
+        <v>193049587</v>
+      </c>
+      <c r="B1104">
+        <v>1744879760</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>2789</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1104" t="s">
+        <v>2790</v>
+      </c>
+      <c r="H1104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1105">
+        <v>193049597</v>
+      </c>
+      <c r="B1105">
+        <v>1744879769</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>2792</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>2785</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1105" t="s">
+        <v>2786</v>
+      </c>
+      <c r="H1105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1106">
+        <v>193049610</v>
+      </c>
+      <c r="B1106">
+        <v>1744879780</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>2794</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>2773</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1106" t="s">
+        <v>2774</v>
+      </c>
+      <c r="H1106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1107">
+        <v>193049641</v>
+      </c>
+      <c r="B1107">
+        <v>1744879807</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1107" t="s">
+        <v>2798</v>
+      </c>
+      <c r="H1107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1108">
+        <v>193049649</v>
+      </c>
+      <c r="B1108">
+        <v>1744879814</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>2799</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>2800</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>2777</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1108" t="s">
+        <v>2778</v>
+      </c>
+      <c r="H1108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1109">
+        <v>193049657</v>
+      </c>
+      <c r="B1109">
+        <v>1744879821</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>2802</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>2781</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1109" t="s">
+        <v>2782</v>
+      </c>
+      <c r="H1109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1110">
+        <v>193049690</v>
+      </c>
+      <c r="B1110">
+        <v>1744879851</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>2803</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>2804</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1110" t="s">
+        <v>2798</v>
+      </c>
+      <c r="H1110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1111">
+        <v>193049699</v>
+      </c>
+      <c r="B1111">
+        <v>1744879859</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>2806</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>2785</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1111" t="s">
+        <v>2786</v>
+      </c>
+      <c r="H1111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1112">
+        <v>193049504</v>
+      </c>
+      <c r="B1112">
+        <v>1744879680</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>2807</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>2789</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1112" t="s">
+        <v>2790</v>
+      </c>
+      <c r="H1112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1113">
+        <v>193049517</v>
+      </c>
+      <c r="B1113">
+        <v>1744879691</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>2785</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1113" t="s">
+        <v>2786</v>
+      </c>
+      <c r="H1113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1114">
+        <v>193049517</v>
+      </c>
+      <c r="B1114">
+        <v>1744879691</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>2811</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1114" t="s">
+        <v>2798</v>
+      </c>
+      <c r="H1114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1115">
+        <v>193049548</v>
+      </c>
+      <c r="B1115">
+        <v>1744879722</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>2812</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>2789</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1115" t="s">
+        <v>2790</v>
+      </c>
+      <c r="H1115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1116">
+        <v>193049561</v>
+      </c>
+      <c r="B1116">
+        <v>1744879735</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>2814</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>2815</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>2773</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1116" t="s">
+        <v>2774</v>
+      </c>
+      <c r="H1116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1117">
+        <v>193049607</v>
+      </c>
+      <c r="B1117">
+        <v>1744879777</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>2816</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1117" t="s">
+        <v>2798</v>
+      </c>
+      <c r="H1117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1118">
+        <v>193049654</v>
+      </c>
+      <c r="B1118">
+        <v>1744879818</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>2773</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1118" t="s">
+        <v>2774</v>
+      </c>
+      <c r="H1118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1119">
+        <v>193049655</v>
+      </c>
+      <c r="B1119">
+        <v>1744879819</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>2785</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1119" t="s">
+        <v>2786</v>
+      </c>
+      <c r="H1119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1120">
+        <v>193049657</v>
+      </c>
+      <c r="B1120">
+        <v>1744879821</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>2802</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>2781</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1120" t="s">
+        <v>2782</v>
+      </c>
+      <c r="H1120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1121">
+        <v>193049685</v>
+      </c>
+      <c r="B1121">
+        <v>1744879846</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>2822</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>2789</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1121" t="s">
+        <v>2790</v>
+      </c>
+      <c r="H1121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1122">
+        <v>193050142</v>
+      </c>
+      <c r="B1122">
+        <v>1744880286</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>2825</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>2826</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>2827</v>
+      </c>
+      <c r="G1122" t="s">
+        <v>2828</v>
+      </c>
+      <c r="H1122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1123">
+        <v>193050160</v>
+      </c>
+      <c r="B1123">
+        <v>1744880304</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>2829</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>2830</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>2831</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1123" t="s">
+        <v>2832</v>
+      </c>
+      <c r="H1123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1124">
+        <v>193050161</v>
+      </c>
+      <c r="B1124">
+        <v>1744880305</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>2834</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>2835</v>
+      </c>
+      <c r="F1124" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1124" t="s">
+        <v>2836</v>
+      </c>
+      <c r="H1124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1125">
+        <v>193050164</v>
+      </c>
+      <c r="B1125">
+        <v>1744880308</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>2838</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>2839</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1125" t="s">
+        <v>2840</v>
+      </c>
+      <c r="H1125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1126">
+        <v>193050166</v>
+      </c>
+      <c r="B1126">
+        <v>1744880310</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>2842</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>2843</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1126" t="s">
+        <v>2844</v>
+      </c>
+      <c r="H1126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1127">
+        <v>193050188</v>
+      </c>
+      <c r="B1127">
+        <v>1744880332</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>2846</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>2847</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1127" t="s">
+        <v>2848</v>
+      </c>
+      <c r="H1127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1128">
+        <v>193050188</v>
+      </c>
+      <c r="B1128">
+        <v>1744880332</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1128" t="s">
+        <v>2851</v>
+      </c>
+      <c r="H1128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1129">
+        <v>193050198</v>
+      </c>
+      <c r="B1129">
+        <v>1744880343</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>2852</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>2853</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>2839</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1129" t="s">
+        <v>2840</v>
+      </c>
+      <c r="H1129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1130">
+        <v>193050202</v>
+      </c>
+      <c r="B1130">
+        <v>1744880347</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>2854</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>2831</v>
+      </c>
+      <c r="F1130" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1130" t="s">
+        <v>2832</v>
+      </c>
+      <c r="H1130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1131">
+        <v>193050235</v>
+      </c>
+      <c r="B1131">
+        <v>1744880380</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>2856</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>2857</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>2847</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1131" t="s">
+        <v>2848</v>
+      </c>
+      <c r="H1131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1132">
+        <v>193050236</v>
+      </c>
+      <c r="B1132">
+        <v>1744880381</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>2859</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F1132" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1132" t="s">
+        <v>2851</v>
+      </c>
+      <c r="H1132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1133">
+        <v>193050245</v>
+      </c>
+      <c r="B1133">
+        <v>1744880390</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>2861</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>2843</v>
+      </c>
+      <c r="F1133" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1133" t="s">
+        <v>2844</v>
+      </c>
+      <c r="H1133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1134">
+        <v>193050311</v>
+      </c>
+      <c r="B1134">
+        <v>1744880457</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>2863</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>2835</v>
+      </c>
+      <c r="F1134" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1134" t="s">
+        <v>2836</v>
+      </c>
+      <c r="H1134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1135">
+        <v>193050312</v>
+      </c>
+      <c r="B1135">
+        <v>1744880458</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>2865</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>2839</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1135" t="s">
+        <v>2840</v>
+      </c>
+      <c r="H1135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1136">
+        <v>193050312</v>
+      </c>
+      <c r="B1136">
+        <v>1744880458</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>2866</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>2843</v>
+      </c>
+      <c r="F1136" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1136" t="s">
+        <v>2844</v>
+      </c>
+      <c r="H1136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1137">
+        <v>193050317</v>
+      </c>
+      <c r="B1137">
+        <v>1744880463</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>2868</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F1137" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1137" t="s">
+        <v>2851</v>
+      </c>
+      <c r="H1137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1138">
+        <v>193050317</v>
+      </c>
+      <c r="B1138">
+        <v>1744880463</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>2869</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>2831</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1138" t="s">
+        <v>2832</v>
+      </c>
+      <c r="H1138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1139">
+        <v>193050344</v>
+      </c>
+      <c r="B1139">
+        <v>1744880491</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>2847</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1139" t="s">
+        <v>2848</v>
+      </c>
+      <c r="H1139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1140">
+        <v>193050345</v>
+      </c>
+      <c r="B1140">
+        <v>1744880492</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>2872</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>2873</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>2839</v>
+      </c>
+      <c r="F1140" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1140" t="s">
+        <v>2840</v>
+      </c>
+      <c r="H1140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1141">
+        <v>193050353</v>
+      </c>
+      <c r="B1141">
+        <v>1744880500</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>2874</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>2875</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>2843</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1141" t="s">
+        <v>2844</v>
+      </c>
+      <c r="H1141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1142">
+        <v>193050379</v>
+      </c>
+      <c r="B1142">
+        <v>1744880526</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>2876</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>2877</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F1142" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1142" t="s">
+        <v>2851</v>
+      </c>
+      <c r="H1142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1143">
+        <v>193050394</v>
+      </c>
+      <c r="B1143">
+        <v>1744880541</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>2878</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>2839</v>
+      </c>
+      <c r="F1143" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1143" t="s">
+        <v>2840</v>
+      </c>
+      <c r="H1143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1144">
+        <v>193050396</v>
+      </c>
+      <c r="B1144">
+        <v>1744880543</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>2881</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>2835</v>
+      </c>
+      <c r="F1144" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1144" t="s">
+        <v>2836</v>
+      </c>
+      <c r="H1144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1145">
+        <v>193050240</v>
+      </c>
+      <c r="B1145">
+        <v>1744880385</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>2831</v>
+      </c>
+      <c r="F1145" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1145" t="s">
+        <v>2832</v>
+      </c>
+      <c r="H1145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1146">
+        <v>193050240</v>
+      </c>
+      <c r="B1146">
+        <v>1744880385</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>2884</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>2839</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1146" t="s">
+        <v>2840</v>
+      </c>
+      <c r="H1146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1147">
+        <v>193050299</v>
+      </c>
+      <c r="B1147">
+        <v>1744880445</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>2885</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>2886</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>2847</v>
+      </c>
+      <c r="F1147" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1147" t="s">
+        <v>2848</v>
+      </c>
+      <c r="H1147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1148">
+        <v>193050356</v>
+      </c>
+      <c r="B1148">
+        <v>1744880503</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>2887</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>2888</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>2831</v>
+      </c>
+      <c r="F1148" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1148" t="s">
+        <v>2832</v>
+      </c>
+      <c r="H1148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1149">
+        <v>193050379</v>
+      </c>
+      <c r="B1149">
+        <v>1744880526</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>2876</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>2877</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F1149" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1149" t="s">
+        <v>2851</v>
+      </c>
+      <c r="H1149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1150">
+        <v>193050386</v>
+      </c>
+      <c r="B1150">
+        <v>1744880533</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>2890</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>2847</v>
+      </c>
+      <c r="F1150" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1150" t="s">
+        <v>2848</v>
+      </c>
+      <c r="H1150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1151">
+        <v>193050387</v>
+      </c>
+      <c r="B1151">
+        <v>1744880534</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>2892</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>2831</v>
+      </c>
+      <c r="F1151" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1151" t="s">
+        <v>2832</v>
+      </c>
+      <c r="H1151" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
